--- a/docs/ECE411_A_Team_Kicad_BOM.xlsx
+++ b/docs/ECE411_A_Team_Kicad_BOM.xlsx
@@ -70,7 +70,7 @@
     <t>581-KGM31AR71A226MU</t>
   </si>
   <si>
-    <t>D1</t>
+    <t>D1,D2</t>
   </si>
   <si>
     <t>RGB LED with integrated controller, 2.0 x 2.0 mm, 12 mA</t>
@@ -85,13 +85,7 @@
     <t>mini-booster! Input 2-5VDC on one side</t>
   </si>
   <si>
-    <t>Li-PolymerBattery1</t>
-  </si>
-  <si>
-    <t>Single-cell battery</t>
-  </si>
-  <si>
-    <t>U1</t>
+    <t>A1</t>
   </si>
   <si>
     <t>RF Module, ESP32-S3 SoC, Wi-Fi 802.11b/g/n, Bluetooth, BLE, 32-bit, 3.3V, onboard antenna, SMD</t>
@@ -113,6 +107,12 @@
   </si>
   <si>
     <t>CEG006900</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Switch slide, single pole double throw</t>
   </si>
   <si>
     <t>VERSION INFO</t>
@@ -132,7 +132,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -173,12 +173,22 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,12 +203,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border/>
     <border>
       <left style="thin">
@@ -277,12 +293,41 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -371,14 +416,26 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -388,43 +445,58 @@
     <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -790,9 +862,9 @@
     </row>
     <row r="9">
       <c r="A9" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="15" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -805,7 +877,7 @@
       <c r="H9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="29">
         <v>2552.0</v>
       </c>
       <c r="J9" s="22">
@@ -833,7 +905,7 @@
       <c r="H10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="31">
         <v>4654.0</v>
       </c>
       <c r="J10" s="22">
@@ -851,7 +923,7 @@
       <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="25"/>
@@ -861,14 +933,14 @@
       <c r="H11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="29">
-        <v>3898.0</v>
+      <c r="I11" s="33">
+        <v>5477.0</v>
       </c>
       <c r="J11" s="22">
-        <v>6.95</v>
+        <v>17.5</v>
       </c>
       <c r="K11" s="22">
-        <v>6.95</v>
+        <v>17.5</v>
       </c>
       <c r="L11" s="28"/>
     </row>
@@ -889,22 +961,22 @@
       <c r="H12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="22">
-        <v>5000.0</v>
+      <c r="I12" s="31">
+        <v>2809.0</v>
       </c>
       <c r="J12" s="22">
-        <v>17.5</v>
+        <v>4.5</v>
       </c>
       <c r="K12" s="22">
-        <v>17.5</v>
+        <v>4.5</v>
       </c>
       <c r="L12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="14">
+      <c r="A13" s="34">
         <v>1.0</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -914,97 +986,97 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="38">
+        <v>6.99</v>
+      </c>
+      <c r="K13" s="38">
+        <v>6.99</v>
+      </c>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="29">
-        <v>2809.0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="K13" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="34">
-        <v>6.99</v>
-      </c>
-      <c r="K14" s="34">
-        <v>6.99</v>
+      <c r="I14" s="44">
+        <v>805.0</v>
+      </c>
+      <c r="J14" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="K14" s="45">
+        <v>0.95</v>
       </c>
       <c r="L14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="23"/>
     </row>
     <row r="16">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="23"/>
     </row>
     <row r="17">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="23"/>
     </row>
     <row r="18">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="25"/>
@@ -1012,17 +1084,17 @@
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="23"/>
     </row>
     <row r="19">
-      <c r="A19" s="49">
+      <c r="A19" s="58">
         <v>1.0</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="59">
         <v>45968.0</v>
       </c>
       <c r="C19" s="25"/>
@@ -1030,17 +1102,17 @@
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="23"/>
     </row>
     <row r="20">
-      <c r="A20" s="49">
+      <c r="A20" s="58">
         <v>2.0</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="59">
         <v>45971.0</v>
       </c>
       <c r="C20" s="25"/>
@@ -1048,17 +1120,17 @@
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="23"/>
     </row>
     <row r="21">
-      <c r="A21" s="51">
+      <c r="A21" s="60">
         <v>3.0</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="59">
         <v>45972.0</v>
       </c>
       <c r="C21" s="25"/>
@@ -1066,14 +1138,14 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22">
-      <c r="A22" s="51">
+      <c r="A22" s="60">
         <v>3.0</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="61">
         <v>45977.0</v>
       </c>
       <c r="C22" s="25"/>
@@ -1081,14 +1153,14 @@
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23">
-      <c r="A23" s="51">
+      <c r="A23" s="60">
         <v>4.0</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="61">
         <v>45981.0</v>
       </c>
       <c r="C23" s="25"/>
@@ -1096,60 +1168,60 @@
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
     </row>
     <row r="25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
-      <c r="B26" s="54"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
     </row>
     <row r="27">
-      <c r="B27" s="54"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
     </row>
     <row r="28">
-      <c r="B28" s="56"/>
+      <c r="B28" s="65"/>
     </row>
     <row r="29">
-      <c r="B29" s="56"/>
+      <c r="B29" s="65"/>
     </row>
     <row r="30">
-      <c r="B30" s="54"/>
+      <c r="B30" s="63"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
